--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yassine</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kevin P</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karthika</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Boitumelo</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>David</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stef</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>empty</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>empty</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Patrycja</t>
+          <t>empty</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>David</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>David</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Yassine</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Boitumelo</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Stef</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Maxim</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Karthika</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Patrycja</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Nina</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Nicole</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Jean</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yassine</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boitumelo</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stef</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>David</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Maxim</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Karthika</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Patrycja</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>empty</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>empty</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>empty</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -537,31 +537,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>An</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
@@ -585,43 +585,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>David</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -633,74 +633,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,10 +724,142 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Table 5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Table 5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Table 6</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Table 7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Table 7</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Table 7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Table 7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Table 7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>empty</t>
         </is>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Table 1</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
@@ -537,31 +537,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>An</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Jessica</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>David</t>
         </is>
       </c>
     </row>
@@ -585,43 +585,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
@@ -633,74 +633,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,142 +724,10 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Table 5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
         <is>
           <t>empty</t>
         </is>

--- a/seating_arrangement.xlsx
+++ b/seating_arrangement.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>An</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Manel</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Fatemeh</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Mohamad</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Table 1</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Edoardo</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Therese</t>
         </is>
       </c>
     </row>
@@ -537,31 +537,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Oscar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Olha</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edoardo</t>
+          <t>Celina</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Frank</t>
         </is>
       </c>
     </row>
@@ -585,43 +585,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Kevin J</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Vera</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Dhanya</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>David</t>
         </is>
       </c>
     </row>
@@ -633,235 +633,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Andrii</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>Imad</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Beatriz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Miriam</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Patrick</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Table 5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Imad</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Table 5</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Table 5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Table 5</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Table 5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Table 6</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>empty</t>
+          <t>Aleksander</t>
         </is>
       </c>
     </row>
